--- a/资源文件/字体原件/字体原件说明.xlsx
+++ b/资源文件/字体原件/字体原件说明.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -71,6 +71,23 @@
   </si>
   <si>
     <t>ABCDEFGHIJKLMNOPQRSTUVWXYZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有控制图标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABCDEFGHIJKLMNOPQRSTUVWXYZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>control_icon_all.ttf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABCDEFGHIJKLMNOPQRSTUVWXYZ
+abcdefghijklmnopqrstuvwxyz</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +147,11 @@
       <name val="Noto Sans Mono CJK SC Regular"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Musicplayer"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,7 +186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -172,6 +194,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="标题 1" xfId="1" builtinId="16"/>
@@ -474,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -517,7 +542,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
@@ -539,7 +564,18 @@
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
